--- a/Dados/MEF_Andares_2.xlsx
+++ b/Dados/MEF_Andares_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fredi\OneDrive\Documentos\MI - Projeto de Circuitos Digitais\PBL_3\PBL_Elevador\Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3966D13A-20DB-41B8-B557-5E11D137419E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90758DF3-3843-45B6-BF70-C07CC259F4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{F32D2C2C-53CB-48D1-B3BE-0638812CCF8D}"/>
   </bookViews>
@@ -460,7 +460,7 @@
   <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+      <selection activeCell="X20" sqref="X20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
